--- a/sqld/SQLD/SQLD1회/sqld31-40.xlsx
+++ b/sqld/SQLD/SQLD1회/sqld31-40.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\project\study_source\sqld\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\project\study_source\sqld\SQLD\SQLD1회\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C770EAC-5E23-46A7-9A82-4BF4811AEAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF87AE1-578B-49BE-BBE7-004996EBE9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{4299BAEF-C659-480E-A13E-81BB8CF77378}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="3" xr2:uid="{4299BAEF-C659-480E-A13E-81BB8CF77378}"/>
   </bookViews>
   <sheets>
     <sheet name="rank partition" sheetId="1" r:id="rId1"/>
+    <sheet name="union" sheetId="2" r:id="rId2"/>
+    <sheet name="case when" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>윈도우 함수를 읽을때는 over뒤를 먼저 읽는다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +52,91 @@
   </si>
   <si>
     <t>rows between</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래는 RANGE BETWEEN이라 명시해야한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무것도 안쓰면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RANGE UNBOUNDED PRECEDING = RANGE UNBOUNDED PRECEDING AND </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CURRENT ROW</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANGE UNBOUNDED PRECEDING &lt;- 요건 범위를 안정하는 경우 BETWEEN과 AND를 뺴고 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANGE BETWEEN 10 UNBOUNDED AND 150 PRECEDING -&gt; 범위를 정하는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래와 같이 실행된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG는  내 기준으로 위로하나 아래로 하나 평균을 구하겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT는  내 기준으로 위로하나 아래로 하나 COUNT를 구하겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답 1번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager 1900</t>
+  </si>
+  <si>
+    <t>helper  2500</t>
+  </si>
+  <si>
+    <t>manager 1300</t>
+  </si>
+  <si>
+    <t>helper  1000</t>
+  </si>
+  <si>
+    <t>3번 union all은 정렬이 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답 : 1번 문법 오류 아님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34번 부터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -56,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +157,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -118,25 +214,822 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>327804</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>244672</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{021E3D53-FBED-808F-FADB-7D7597FC6D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="595223"/>
+          <a:ext cx="3695238" cy="4600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>111339</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>96892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404762ED-AFED-4E83-AE28-21D39640C453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5357004"/>
+          <a:ext cx="3561905" cy="2676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>399230</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9CF065-76EB-23EA-0BE1-40862EAD4F4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140679" y="6150634"/>
+          <a:ext cx="7990476" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60385</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>31044</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABD2263-FA3A-A225-7708-79F1811C53CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4891177" y="3062377"/>
+          <a:ext cx="7561905" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428528</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>192099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC970F91-206E-4C66-1944-B62807A91F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4830792" y="1587260"/>
+          <a:ext cx="9400000" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>478369</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209CF3DC-BA3D-5804-0373-683DB125160B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140679" y="8134709"/>
+          <a:ext cx="4619048" cy="2466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>309843</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F182213-927A-141F-9955-A27A895EE677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140679" y="10912415"/>
+          <a:ext cx="9971428" cy="4914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>572880</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>58827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FCF352-8190-7322-E57E-E56C997884FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8134709"/>
+          <a:ext cx="3333333" cy="3828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638354</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>138023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>53686</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>188950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FC1CC9-5F92-7C01-E546-85FDF957A485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4088920" y="16605849"/>
+          <a:ext cx="10457143" cy="5209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>569344</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>172528</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>134016</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>125556</xdr:rowOff>
     </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC6B875-A188-A45B-A67C-115AA63A2F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140679" y="22023238"/>
+          <a:ext cx="10485714" cy="6276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654196</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>150912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A85FC9-5FD7-9E91-8B86-9F7CF0409B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4104762" cy="4714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673243</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>193785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38689B9-F7DE-9AE0-7860-9A046CCC1C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4761781"/>
+          <a:ext cx="4123809" cy="5352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>111339</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>176268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94099CE-E176-BFCA-FABA-6D7B8CF95518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10118785"/>
+          <a:ext cx="3561905" cy="3152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>668118</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>144543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80E41A0-30FC-F1BD-3803-C5D2F25C8477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13293306"/>
+          <a:ext cx="3428571" cy="3914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>345057</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>77637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>310592</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>64991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899C3AFD-286F-F05F-9D2E-6801678A90FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7246189" y="10196422"/>
+          <a:ext cx="6866667" cy="1971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>353833</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>122279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64690A96-561A-8EC6-D53E-3DE5E3C06228}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140679" y="10714008"/>
+          <a:ext cx="3114286" cy="2304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>597053</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>136642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4D51FB-9079-0191-392D-3106C6B39626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4047619" cy="5295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>483080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>592198</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BF6E24-6932-4DD8-5E03-BA2D7299EC80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6694099" y="517585"/>
+          <a:ext cx="8390476" cy="4847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>379562</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34506</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4106174" cy="5948039"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+        <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF48D70B-6A50-D6F8-66EB-BE42D79EFA93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227C3634-955E-22B1-DA99-3ED640496624}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -144,8 +1037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1017917" y="1328468"/>
-          <a:ext cx="3692106" cy="1423358"/>
+          <a:off x="3140015" y="5589917"/>
+          <a:ext cx="4106174" cy="5948039"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -176,18 +1069,469 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>테스트 필요</a:t>
-          </a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>with test_table as(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select null col1 from dual union all</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select 0 col1 from dual union all</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select null col1 from dual union all</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select 0 col1 from dual union all</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select null col1 from dual</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select case col1 when null then -1 else 0 end data  from test_table</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WITH test_table AS (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT NULL col1 FROM dual UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT 0 col1 FROM dual UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT NULL col1 FROM dual UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT 0 col1 FROM dual UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT NULL col1 FROM dual</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    CASE NVL(col1, -99999) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        WHEN -99999 THEN -1 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        ELSE 0 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    END AS data  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FROM test_table;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>with test_table as(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select null col1 from dual union all</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select 0 col1 from dual union all</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select null col1 from dual union all</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select 0 col1 from dual union all</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select null col1 from dual</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select case when col1 is null then -1 else 0 end data  from test_table</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -488,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96989DC-F744-4E4B-8E4E-B1434481F329}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -514,9 +1858,146 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826DE1A7-19B5-4813-AEBF-1A025F86B9FE}">
+  <dimension ref="G25:I53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83117E9D-73B1-473A-903B-FEFC6CD88733}">
+  <dimension ref="G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F609D93B-A4FA-4C7C-8AA9-07DAF9F078F0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sqld/SQLD/SQLD1회/sqld31-40.xlsx
+++ b/sqld/SQLD/SQLD1회/sqld31-40.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\project\study_source\sqld\SQLD\SQLD1회\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF87AE1-578B-49BE-BBE7-004996EBE9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7824F716-1B3C-4537-9503-30794E444AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="3" xr2:uid="{4299BAEF-C659-480E-A13E-81BB8CF77378}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" firstSheet="1" activeTab="9" xr2:uid="{4299BAEF-C659-480E-A13E-81BB8CF77378}"/>
   </bookViews>
   <sheets>
     <sheet name="rank partition" sheetId="1" r:id="rId1"/>
     <sheet name="union" sheetId="2" r:id="rId2"/>
     <sheet name="case when" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="안봐도됨" sheetId="4" r:id="rId4"/>
+    <sheet name="TO_DATE" sheetId="5" r:id="rId5"/>
+    <sheet name="SQL결과값" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
+    <sheet name="ROLL UP" sheetId="8" r:id="rId8"/>
+    <sheet name="ANSI SQL" sheetId="9" r:id="rId9"/>
+    <sheet name="JOIN" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>윈도우 함수를 읽을때는 over뒤를 먼저 읽는다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +143,26 @@
   </si>
   <si>
     <t>34번 부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답 4번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 숫자는 VARCHAR2에도 들어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답 3번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답 2번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL OUTER JOIN 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,6 +683,1148 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>353833</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A022F068-FB38-02C7-FFF6-820F7AF073AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3114286" cy="5171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>658595</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B46913-1945-5D4D-7721-3E7898756F4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5158596"/>
+          <a:ext cx="3419048" cy="2495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552091</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120770</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3562709" cy="5072030"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2739E366-A01C-0A63-3464-A9834CDB6968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3312544" y="2303253"/>
+          <a:ext cx="3562709" cy="5072030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WITH</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>table1 AS (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>관우</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>COL1, 100 COL2, 'B' KEY1 FROM dual UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>유비</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>COL1, 200 COL2, 'C' KEY1 FROM dual UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>조자룡</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>COL1, 300 COL2, 'D' KEY1 FROM dual UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>동탁</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>COL1, 400 COL2, 'E' KEY1 FROM dual </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>),</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>table2 AS (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT 'A' KEY2, 100 COL2, '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>조조</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>COL3 FROM dual UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT 'B' KEY2, 200 COL2, '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>관우</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>COL3 FROM dual UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT 'C' KEY2, 300 COL2, '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>유비</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>COL3 FROM dual </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    table1 t1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FULL OUTER JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    table2 t2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ON</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    t1.KEY1 = t2.KEY2  </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207034</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>94890</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>69012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0A5514-F2FF-15F1-BA82-473B2D99C44C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7108166" y="2355011"/>
+          <a:ext cx="4718649" cy="5055080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WITH</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>table1 AS (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT 1 AS id, 'A' AS name FROM dual UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT 2 AS id, 'B' AS name FROM dual UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT 3 AS id, 'C' AS name FROM dual</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>),</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>table2 AS (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT 2 AS id, 'X' AS name FROM dual UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT 3 AS id, 'Y' AS name FROM dual UNION ALL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    SELECT 4 AS id, 'Z' AS name FROM dual</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    t1.id AS id1,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    t1.name AS name1,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    t2.id AS id2,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    t2.name AS name2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    table1 t1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FULL OUTER JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    table2 t2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ON</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    t1.id = t2.id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ORDER BY</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    COALESCE(t1.id, t2.id);</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1535,6 +2703,520 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297416</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>168460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58B47BA-918D-6C8D-BFA4-674F656AD76C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4438095" cy="8104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>564808</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>154159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF67EDC7-B6E4-A7D5-2EDA-6E464341A982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6085714" cy="7495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>525261</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F66F03-AC79-82D0-BEF0-FB13ABA4F5FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6211019" y="1388853"/>
+          <a:ext cx="3285714" cy="2152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>682767</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>196908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBE75E6-1BE3-E8F5-8518-D3A80D791E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4133333" cy="3371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>458595</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB7788A-D01D-E7CF-C608-F3AE1197E96C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3571336"/>
+          <a:ext cx="3219048" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601452</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>79499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352A5F7C-3DA3-F5DD-238E-C50C6B5A5D00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140679" y="595223"/>
+          <a:ext cx="3361905" cy="5238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>353833</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2508CEDD-7B15-0B66-B7D8-2B66D8F7FCF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3114286" cy="5028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>506214</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>173144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87BF68D-7969-4C95-A716-454F2BC59604}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3266667" cy="5133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>330386</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6AD21F-A4ED-84D7-4BB1-014F592DCCB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3780952" cy="4514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>478368</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>117532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9833CAB-E0A9-2FB3-E5A7-2B7E088501C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4830792" y="2976113"/>
+          <a:ext cx="4619048" cy="2895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>370936</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63227</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>98428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11CCD0A-1EE1-B77C-D742-0DC47B49CABB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="370936" y="4106174"/>
+          <a:ext cx="3142857" cy="3333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -1914,6 +3596,31 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E5A9ED-A3A7-4716-B4BE-0209AE6662A3}">
+  <dimension ref="F10:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="10" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826DE1A7-19B5-4813-AEBF-1A025F86B9FE}">
   <dimension ref="G25:I53"/>
@@ -1983,21 +3690,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F609D93B-A4FA-4C7C-8AA9-07DAF9F078F0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D529E8D5-A99E-45FF-83CF-C1676827B894}">
+  <dimension ref="J4:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C9E50-BAFF-44AB-91CE-041795B51C78}">
+  <dimension ref="G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EA93D8-BAB8-4878-BDD6-6C54C54B9575}">
+  <dimension ref="F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="13" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FBE45-7665-4728-80CE-3A3A44181FBE}">
+  <dimension ref="F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF457A1-6294-43E2-806A-BD679FF793E0}">
+  <dimension ref="G33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>